--- a/biology/Botanique/Ministère_de_l'Environnement,_des_Forêts_et_du_Changement_climatique/Ministère_de_l'Environnement,_des_Forêts_et_du_Changement_climatique.xlsx
+++ b/biology/Botanique/Ministère_de_l'Environnement,_des_Forêts_et_du_Changement_climatique/Ministère_de_l'Environnement,_des_Forêts_et_du_Changement_climatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Environnement,_des_For%C3%AAts_et_du_Changement_climatique</t>
+          <t>Ministère_de_l'Environnement,_des_Forêts_et_du_Changement_climatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministère de l'Environnement, des Forêts et du Changement climatique (en anglais Ministry of Environment, Forests and Climate Change (MoEFCC)) est un cabinet ministériel du gouvernement indien chargé de la planification, la promotion, la coordination et la supervision de la mise en œuvre de la politique environnementale et de la gestion des programmes forestiers du pays.
-Dans le cadre de la législation indienne, les activités principales du ministère sont[1] :
+Dans le cadre de la législation indienne, les activités principales du ministère sont :
 la conservation de la flore et de la faune de l'Inde, des forêts et autres zones sauvages ;
 la recherche sur la faune et la flore et l'écologie ;
 la prévention et le contrôle de la pollution ;
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Environnement,_des_For%C3%AAts_et_du_Changement_climatique</t>
+          <t>Ministère_de_l'Environnement,_des_Forêts_et_du_Changement_climatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Les institutions dépendantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Indian Forest Service
 Centre for Environment Education
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Environnement,_des_For%C3%AAts_et_du_Changement_climatique</t>
+          <t>Ministère_de_l'Environnement,_des_Forêts_et_du_Changement_climatique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,6 +570,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
